--- a/daily_update.xlsx
+++ b/daily_update.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/python.scrapers-daily-update/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_A0E65F96BC76E5DE8CC22E2B18A583262E21C795" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="gov" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="opeds" sheetId="3" r:id="rId3"/>
     <sheet name="stembiz" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="663">
   <si>
     <t>type</t>
   </si>
@@ -764,6 +758,9 @@
     <t>Cubans crossing into US stunned to hear of new asylum limits</t>
   </si>
   <si>
+    <t>EXPLAINER: What is ChatGPT and why are schools blocking it?</t>
+  </si>
+  <si>
     <t>Democratic officials’ homes, offices shot up in New Mexico</t>
   </si>
   <si>
@@ -776,9 +773,6 @@
     <t>California gets brief lull after damaging ‘bomb cyclone’</t>
   </si>
   <si>
-    <t>Alzheimer’s drug that modestly slows disease OK’d by FDA</t>
-  </si>
-  <si>
     <t>Mexico gives account of violence after ‘Chapo’ son nabbed</t>
   </si>
   <si>
@@ -818,15 +812,12 @@
     <t>U.S. Job Growth Slows but Remains Solid</t>
   </si>
   <si>
-    <t>The hospitality, health care and construction sectors generated job growth in December.</t>
+    <t>FDA approves a second Alzheimer’s treatment showing modest benefits for patients</t>
   </si>
   <si>
     <t>EPA avoids most stringent picks in key water, air rules</t>
   </si>
   <si>
-    <t>FDA approves a second Alzheimer’s treatment showing modest benefits for patients</t>
-  </si>
-  <si>
     <t>Mount Sinai starts transferring babies out of its intensive care units ahead of a looming nurses strike</t>
   </si>
   <si>
@@ -878,9 +869,6 @@
     <t>POLITICO Playbook PM: McCarthy finally gets some momentum</t>
   </si>
   <si>
-    <t>Who repped who in the Jan. 6 probe: A look at the frequently used witness lawyers</t>
-  </si>
-  <si>
     <t>China’s TikTok wins while U.S. dillydallies</t>
   </si>
   <si>
@@ -923,12 +911,12 @@
     <t>United StatescategoryU.S. House brawl over McCarthy raises worries about Republican governance, article with image11:07 AM UTC</t>
   </si>
   <si>
+    <t>GalleryUnited StatescategoryRepublican McCarthy gains momentum but fails to clinch U.S. House leadership, article with gallery7:21 PM UTC . Updated undefined ago</t>
+  </si>
+  <si>
     <t>EuropecategoryExclusive: Russian hackers targeted U.S. nuclear scientists, article with image4:47 PM UTC</t>
   </si>
   <si>
-    <t>GalleryUnited StatescategoryRepublican McCarthy gains momentum but fails to clinch U.S. House leadership, article with gallery7:21 PM UTC . Updated undefined ago</t>
-  </si>
-  <si>
     <t>GalleryAmericascategory'We threw ourselves to the floor': Mexican passenger plane caught in cartel crossfire, article with gallery5:54 AM UTC</t>
   </si>
   <si>
@@ -998,6 +986,9 @@
     <t>https://www.apnews.com/article/biden-politics-mexico-united-states-government-70f9516a689fa26a41af184ec76e9527</t>
   </si>
   <si>
+    <t>https://www.apnews.com/article/technology-science-education-teaching-new-york-city-ac4967a4fb41fda31c4d27f015e32660</t>
+  </si>
+  <si>
     <t>https://www.apnews.com/article/politics-albuquerque-new-mexico-state-government-831e1d985a1795eea69ac6489f0698ed</t>
   </si>
   <si>
@@ -1010,9 +1001,6 @@
     <t>https://www.apnews.com/article/weather-storms-california-climate-and-environment-b83bb05fa2d21796a85be9bfc690cf17</t>
   </si>
   <si>
-    <t>https://www.apnews.com/article/health-medication-us-food-and-drug-administration-business-d2a155172735e00d2aa7baaeb8c24a9b</t>
-  </si>
-  <si>
     <t>https://www.apnews.com/article/politics-united-states-government-mexico-drug-crimes-city-d74ba460138c067ca538c862e3f0a5b0</t>
   </si>
   <si>
@@ -1142,6 +1130,9 @@
     <t>https://theathletic.com/4060678/2023/01/06/ottawa-senators-sale-new-ownership/</t>
   </si>
   <si>
+    <t>https://fda.agencyiq.com/article/2023/01/06/fda-approves-a-second-alzheimers-treatment-showing-modest-benefits-for-patients-00076733</t>
+  </si>
+  <si>
     <t>https://subscriber.politicopro.com/newsletter/2023/01/epa-avoids-most-stringent-picks-in-key-water-air-rules-00076771</t>
   </si>
   <si>
@@ -1199,9 +1190,6 @@
     <t>https://www.politico.com/newsletters/playbook-pm/2023/01/06/mccarthy-finally-gets-some-momentum-00076766</t>
   </si>
   <si>
-    <t>https://www.politico.com/news/2023/01/06/jan-6-probe-witness-lawyers-00076779</t>
-  </si>
-  <si>
     <t>https://www.reuters.com/breakingviews/</t>
   </si>
   <si>
@@ -1248,16 +1236,16 @@
   </si>
   <si>
     <t>Ukraine has dis­missed an of­fer from Russ­ian Pres­i­dent Vladimir Putin for a 36-hour cease­fire over Or­tho­dox Christ­mas, say­ing there would be no truce un­til Rus­sia with­draws its forces from oc­cu­pied ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The agency granted accelerated approval to Leqembi on Friday
+</t>
   </si>
   <si>
     <t xml:space="preserve">The EPA finalized a rule that seeks to cut a middle path between Obama’s expansive 2015 definition and the Trump administration’s narrow Navigable Waters Protection Rule. 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The agency granted accelerated approval to Leqembi on Friday
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Over 5,000 members of the New York State Nurses Association are preparing to strike at three Sinai hospitals if they do not reach a tentative deal before Monday.
 </t>
   </si>
@@ -1298,16 +1286,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">We reviewed reams of witness transcripts released by the Jan. 6 select committee to identify the lawyers often tapped by the witnesses.
-</t>
-  </si>
-  <si>
     <t>6 Jan 2023</t>
   </si>
   <si>
     <t>5 Jan 2023</t>
   </si>
   <si>
+    <t>01/06/23 02:31 PM EST</t>
+  </si>
+  <si>
     <t>01/06/23 02:27 PM EST</t>
   </si>
   <si>
@@ -1347,9 +1334,6 @@
     <t>01/06/23 01:36 PM EST</t>
   </si>
   <si>
-    <t>01/06/23 01:26 PM EST</t>
-  </si>
-  <si>
     <t>undefined ago</t>
   </si>
   <si>
@@ -1369,9 +1353,6 @@
   </si>
   <si>
     <t>4:25 PM UTC</t>
-  </si>
-  <si>
-    <t>6:31 PM UTC</t>
   </si>
   <si>
     <t>4:08 PM UTC</t>
@@ -1628,7 +1609,7 @@
     <t>JANUARY 5, 2023</t>
   </si>
   <si>
-    <t>in 10 minutes</t>
+    <t>in 8 minutes</t>
   </si>
   <si>
     <t>about 1 hour ago</t>
@@ -1661,7 +1642,7 @@
     <t>October 25, 2022</t>
   </si>
   <si>
-    <t>10 min ago</t>
+    <t>14 min ago</t>
   </si>
   <si>
     <t>4 hr ago</t>
@@ -1721,7 +1702,7 @@
     <t>Best of CES 2023: Canine communication and a calming pillow</t>
   </si>
   <si>
-    <t>German factory orders down sharply, contining trend</t>
+    <t>Alzheimer’s drug that modestly slows disease OK’d by FDA</t>
   </si>
   <si>
     <t>Between battles, Ukraine’s soldiers have a place to recover</t>
@@ -1757,12 +1738,15 @@
     <t>Twitter leak exposes 235 million email addresses from hack</t>
   </si>
   <si>
-    <t>CES 2023: Ram electric pickup joins crowded field next year</t>
-  </si>
-  <si>
     <t>CES 2023: Russian exhibitors barred from displaying tech</t>
   </si>
   <si>
+    <t>Russia’s hypersonic missile-armed ship to patrol global seas</t>
+  </si>
+  <si>
+    <t>FTC proposes rule that would ban employee noncompete clauses</t>
+  </si>
+  <si>
     <t>Android Automotive goes mainstream: A review of GM’s new infotainment system</t>
   </si>
   <si>
@@ -1820,18 +1804,18 @@
     <t>Jimmy Lee on the Markets (Radio)</t>
   </si>
   <si>
-    <t>Wood's Ark Invest nearly liquidates Silvergate Capital position, article with imageMarketscategory · January 6, 2023 · 4:52 PM UTCStar stock picker Cathie Wood's Ark Invest sold 403,990 shares of embattled crypto-focused bank Silvergate Capital Corp on Thursday as shares in the firm plunged more than 40%, according to disclosures by Ark Invest.</t>
+    <t>Tesla short sellers pile on pressure after most profitable trade in 2022, article with imageMarketscategory · January 6, 2023 · 6:38 PM UTC · undefined agoFresh off their most profitable year ever, short sellers targeting Tesla Inc's stock are heaping more pressure on the electric vehicle maker led by Elon Musk.</t>
+  </si>
+  <si>
+    <t>MarketscategoryWood's Ark Invest nearly liquidates Silvergate Capital position, article with image4:52 PM UTC</t>
+  </si>
+  <si>
+    <t>ChargedcategoryTesla slashes prices in China, other Asian markets as sales stumble, article with image5:57 PM UTC</t>
   </si>
   <si>
     <t>TechnologycategoryExclusive: TikTok freezes consultant hiring for U.S. security deal as opposition mounts, article with image4:27 PM UTC</t>
   </si>
   <si>
-    <t>ChargedcategoryTesla slashes prices in China, other Asian markets as sales stumble, article with image5:57 PM UTC</t>
-  </si>
-  <si>
-    <t>MarketscategoryTesla short sellers pile on pressure after most profitable trade in 2022, article with image6:38 PM UTC . Updated undefined ago</t>
-  </si>
-  <si>
     <t>MarketscategoryWall St jumps as jobs, services data calm rate hike worries, article with image5:46 PM UTC</t>
   </si>
   <si>
@@ -1841,7 +1825,7 @@
     <t>Aerospace &amp; DefensecategoryU.S. FAA names experts to review Boeing safety culture after fatal crashes, article with imageJanuary 5, 2023</t>
   </si>
   <si>
-    <t>MarketscategoryCanada posts hefty job gains, raising chances of another rate hike, article with image3:57 PM UTC</t>
+    <t>U.S. MarketscategoryU.S. jobs report breathes life into Fed's 'soft landing' scenario, article with image7:27 PM UTC . Updated undefined ago</t>
   </si>
   <si>
     <t>TechnologycategorySouth Korea's SK On plans a new, lower cost EV battery by 2025, article with image5:41 AM UTC</t>
@@ -1904,7 +1888,7 @@
     <t>https://www.apnews.com/article/ces2023-best-of-jan6-9d127822b54184e6c4d8313368667dc0</t>
   </si>
   <si>
-    <t>https://www.apnews.com/article/germany-europe-business-economy-3528e6100e922f26028bdf12ef759c0d</t>
+    <t>https://www.apnews.com/article/health-medication-us-food-and-drug-administration-business-d2a155172735e00d2aa7baaeb8c24a9b</t>
   </si>
   <si>
     <t>https://www.apnews.com/article/politics-health-russia-ukraine-war-europe-kharkiv-d753058815c977005ad97048ed76b811</t>
@@ -1940,12 +1924,15 @@
     <t>https://www.apnews.com/article/twitter-inc-technology-social-media-business-ce4567176ed1824bb6e3e4376708c12d</t>
   </si>
   <si>
-    <t>https://www.apnews.com/article/technology-consumer-electronics-show-business-e07cf8b5210b86eb1e98a4f679b4fd68</t>
-  </si>
-  <si>
     <t>https://www.apnews.com/article/technology-consumer-electronics-show-gary-shapiro-business-577ffe6f49dd7f53a1415d690583001f</t>
   </si>
   <si>
+    <t>https://www.apnews.com/article/putin-technology-politics-russia-government-561c5501aeb8f3ae40af1789ec237103</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/biden-technology-politics-business-9fb699837e8bf8ecd9c70dcf27699dcf</t>
+  </si>
+  <si>
     <t>https://arstechnica.com/gadgets/2023/01/android-automotive-goes-mainstream-a-review-of-gms-new-infotainment-system/</t>
   </si>
   <si>
@@ -2052,6 +2039,9 @@
   </si>
   <si>
     <t>Jan 6, 2023</t>
+  </si>
+  <si>
+    <t>3 minutes ago</t>
   </si>
   <si>
     <t>7 hours ago</t>
@@ -2060,8 +2050,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2137,14 +2127,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2191,7 +2173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2223,27 +2205,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2275,24 +2239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2468,16 +2414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2520,7 +2464,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2540,7 +2484,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2501,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2574,7 +2518,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2535,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2608,7 +2552,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2625,7 +2569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2642,7 +2586,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2659,7 +2603,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2676,7 +2620,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2693,7 +2637,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2710,7 +2654,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2727,7 +2671,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2744,7 +2688,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2761,7 +2705,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +2722,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2795,7 +2739,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2812,7 +2756,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +2773,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2846,7 +2790,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2863,7 +2807,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2880,7 +2824,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2897,7 +2841,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2914,7 +2858,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2931,7 +2875,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2948,7 +2892,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +2909,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +2926,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2999,7 +2943,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -3016,7 +2960,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +2977,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -3050,7 +2994,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3067,7 +3011,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3084,7 +3028,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +3045,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3118,7 +3062,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3135,7 +3079,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -3152,7 +3096,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -3169,7 +3113,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -3189,7 +3133,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -3209,7 +3153,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -3229,7 +3173,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -3246,7 +3190,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -3263,7 +3207,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -3283,7 +3227,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -3303,7 +3247,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3267,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3343,7 +3287,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3363,7 +3307,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -3383,7 +3327,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3403,7 +3347,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3423,7 +3367,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3384,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -3457,7 +3401,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3474,7 +3418,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3491,7 +3435,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3508,7 +3452,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3525,7 +3469,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -3542,7 +3486,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3559,7 +3503,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3579,7 +3523,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -3599,7 +3543,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3619,7 +3563,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3639,7 +3583,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3659,7 +3603,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3679,7 +3623,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3699,7 +3643,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3719,7 +3663,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3739,7 +3683,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3759,7 +3703,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3779,7 +3723,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3799,7 +3743,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3819,7 +3763,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3839,7 +3783,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3859,7 +3803,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3879,7 +3823,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3899,7 +3843,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3919,7 +3863,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3939,7 +3883,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3959,7 +3903,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3981,99 +3925,99 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D42" r:id="rId40"/>
+    <hyperlink ref="D43" r:id="rId41"/>
+    <hyperlink ref="D44" r:id="rId42"/>
+    <hyperlink ref="D45" r:id="rId43"/>
+    <hyperlink ref="D46" r:id="rId44"/>
+    <hyperlink ref="D47" r:id="rId45"/>
+    <hyperlink ref="D48" r:id="rId46"/>
+    <hyperlink ref="D49" r:id="rId47"/>
+    <hyperlink ref="D50" r:id="rId48"/>
+    <hyperlink ref="D51" r:id="rId49"/>
+    <hyperlink ref="D52" r:id="rId50"/>
+    <hyperlink ref="D53" r:id="rId51"/>
+    <hyperlink ref="D54" r:id="rId52"/>
+    <hyperlink ref="D55" r:id="rId53"/>
+    <hyperlink ref="D56" r:id="rId54"/>
+    <hyperlink ref="D57" r:id="rId55"/>
+    <hyperlink ref="D58" r:id="rId56"/>
+    <hyperlink ref="D59" r:id="rId57"/>
+    <hyperlink ref="D60" r:id="rId58"/>
+    <hyperlink ref="D61" r:id="rId59"/>
+    <hyperlink ref="D63" r:id="rId60"/>
+    <hyperlink ref="D64" r:id="rId61"/>
+    <hyperlink ref="D65" r:id="rId62"/>
+    <hyperlink ref="D66" r:id="rId63"/>
+    <hyperlink ref="D67" r:id="rId64"/>
+    <hyperlink ref="D68" r:id="rId65"/>
+    <hyperlink ref="D69" r:id="rId66"/>
+    <hyperlink ref="D70" r:id="rId67"/>
+    <hyperlink ref="D71" r:id="rId68"/>
+    <hyperlink ref="D72" r:id="rId69"/>
+    <hyperlink ref="D73" r:id="rId70"/>
+    <hyperlink ref="D74" r:id="rId71"/>
+    <hyperlink ref="D75" r:id="rId72"/>
+    <hyperlink ref="D76" r:id="rId73"/>
+    <hyperlink ref="D77" r:id="rId74"/>
+    <hyperlink ref="D78" r:id="rId75"/>
+    <hyperlink ref="D79" r:id="rId76"/>
+    <hyperlink ref="D80" r:id="rId77"/>
+    <hyperlink ref="D81" r:id="rId78"/>
+    <hyperlink ref="D82" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4093,7 +4037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -4104,16 +4048,16 @@
         <v>224</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -4124,16 +4068,16 @@
         <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>214</v>
       </c>
@@ -4144,16 +4088,16 @@
         <v>226</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -4164,16 +4108,16 @@
         <v>227</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -4184,16 +4128,16 @@
         <v>228</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -4204,16 +4148,16 @@
         <v>229</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -4224,16 +4168,16 @@
         <v>230</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -4244,16 +4188,16 @@
         <v>231</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -4264,16 +4208,16 @@
         <v>232</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -4284,16 +4228,16 @@
         <v>233</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -4304,7 +4248,7 @@
         <v>234</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E12" t="s">
         <v>190</v>
@@ -4313,7 +4257,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -4324,7 +4268,7 @@
         <v>235</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E13" t="s">
         <v>190</v>
@@ -4333,7 +4277,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>214</v>
       </c>
@@ -4344,7 +4288,7 @@
         <v>236</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E14" t="s">
         <v>190</v>
@@ -4353,7 +4297,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -4364,7 +4308,7 @@
         <v>237</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E15" t="s">
         <v>190</v>
@@ -4373,7 +4317,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -4384,7 +4328,7 @@
         <v>238</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E16" t="s">
         <v>190</v>
@@ -4393,7 +4337,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -4404,7 +4348,7 @@
         <v>239</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E17" t="s">
         <v>190</v>
@@ -4413,7 +4357,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -4424,7 +4368,7 @@
         <v>240</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E18" t="s">
         <v>190</v>
@@ -4433,7 +4377,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -4444,7 +4388,7 @@
         <v>241</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E19" t="s">
         <v>190</v>
@@ -4453,7 +4397,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>214</v>
       </c>
@@ -4464,7 +4408,7 @@
         <v>235</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E20" t="s">
         <v>190</v>
@@ -4473,7 +4417,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -4484,7 +4428,7 @@
         <v>242</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E21" t="s">
         <v>190</v>
@@ -4493,7 +4437,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>214</v>
       </c>
@@ -4504,7 +4448,7 @@
         <v>243</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
         <v>190</v>
@@ -4513,7 +4457,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>214</v>
       </c>
@@ -4524,7 +4468,7 @@
         <v>244</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E23" t="s">
         <v>190</v>
@@ -4533,7 +4477,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -4544,7 +4488,7 @@
         <v>245</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E24" t="s">
         <v>190</v>
@@ -4553,7 +4497,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -4561,10 +4505,10 @@
         <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E25" t="s">
         <v>190</v>
@@ -4573,7 +4517,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -4581,10 +4525,10 @@
         <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E26" t="s">
         <v>190</v>
@@ -4593,7 +4537,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -4604,7 +4548,7 @@
         <v>247</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E27" t="s">
         <v>190</v>
@@ -4613,7 +4557,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -4624,7 +4568,7 @@
         <v>248</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E28" t="s">
         <v>190</v>
@@ -4633,7 +4577,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>214</v>
       </c>
@@ -4644,7 +4588,7 @@
         <v>249</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E29" t="s">
         <v>190</v>
@@ -4653,7 +4597,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -4664,7 +4608,7 @@
         <v>250</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E30" t="s">
         <v>190</v>
@@ -4673,7 +4617,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -4684,7 +4628,7 @@
         <v>251</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E31" t="s">
         <v>190</v>
@@ -4693,7 +4637,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -4704,7 +4648,7 @@
         <v>252</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E32" t="s">
         <v>190</v>
@@ -4713,7 +4657,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>214</v>
       </c>
@@ -4724,7 +4668,7 @@
         <v>253</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E33" t="s">
         <v>190</v>
@@ -4733,7 +4677,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>214</v>
       </c>
@@ -4744,7 +4688,7 @@
         <v>254</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E34" t="s">
         <v>190</v>
@@ -4753,7 +4697,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -4764,7 +4708,7 @@
         <v>255</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E35" t="s">
         <v>190</v>
@@ -4773,7 +4717,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>214</v>
       </c>
@@ -4784,13 +4728,13 @@
         <v>256</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>214</v>
       </c>
@@ -4801,13 +4745,13 @@
         <v>257</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>214</v>
       </c>
@@ -4818,13 +4762,13 @@
         <v>258</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F38" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>214</v>
       </c>
@@ -4835,13 +4779,13 @@
         <v>259</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>214</v>
       </c>
@@ -4852,30 +4796,27 @@
         <v>260</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F40" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>214</v>
       </c>
       <c r="B41" t="s">
         <v>219</v>
       </c>
-      <c r="C41" t="s">
-        <v>261</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -4883,13 +4824,13 @@
         <v>219</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>214</v>
       </c>
@@ -4897,13 +4838,13 @@
         <v>219</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -4911,13 +4852,13 @@
         <v>219</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>214</v>
       </c>
@@ -4925,13 +4866,13 @@
         <v>219</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F45" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -4939,13 +4880,13 @@
         <v>219</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F46" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -4953,13 +4894,13 @@
         <v>219</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F47" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>214</v>
       </c>
@@ -4967,13 +4908,13 @@
         <v>219</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4981,13 +4922,13 @@
         <v>219</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F49" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>214</v>
       </c>
@@ -4995,13 +4936,13 @@
         <v>219</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>214</v>
       </c>
@@ -5009,13 +4950,13 @@
         <v>219</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F51" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>214</v>
       </c>
@@ -5023,13 +4964,13 @@
         <v>219</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -5037,13 +4978,13 @@
         <v>219</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F53" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -5051,13 +4992,13 @@
         <v>219</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F54" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -5065,13 +5006,13 @@
         <v>219</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F55" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -5079,13 +5020,13 @@
         <v>219</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F56" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>214</v>
       </c>
@@ -5093,13 +5034,13 @@
         <v>219</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F57" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -5107,13 +5048,13 @@
         <v>219</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F58" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -5121,13 +5062,13 @@
         <v>219</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F59" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>214</v>
       </c>
@@ -5135,13 +5076,13 @@
         <v>219</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F60" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>214</v>
       </c>
@@ -5149,13 +5090,13 @@
         <v>219</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F61" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>214</v>
       </c>
@@ -5163,13 +5104,13 @@
         <v>219</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F62" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -5177,13 +5118,13 @@
         <v>219</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F63" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -5191,13 +5132,13 @@
         <v>219</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F64" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>214</v>
       </c>
@@ -5205,13 +5146,13 @@
         <v>219</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F65" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -5219,13 +5160,13 @@
         <v>219</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F66" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -5233,13 +5174,13 @@
         <v>219</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F67" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>214</v>
       </c>
@@ -5247,13 +5188,13 @@
         <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F68" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -5261,13 +5202,13 @@
         <v>219</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F69" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -5275,13 +5216,13 @@
         <v>219</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F70" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -5289,13 +5230,13 @@
         <v>219</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F71" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -5303,13 +5244,13 @@
         <v>219</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F72" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -5317,19 +5258,19 @@
         <v>220</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E73" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F73" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -5337,19 +5278,19 @@
         <v>220</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E74" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F74" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>214</v>
       </c>
@@ -5357,19 +5298,19 @@
         <v>220</v>
       </c>
       <c r="C75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E75" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F75" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>214</v>
       </c>
@@ -5377,16 +5318,19 @@
         <v>220</v>
       </c>
       <c r="C76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+      <c r="E76" t="s">
+        <v>405</v>
       </c>
       <c r="F76" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>214</v>
       </c>
@@ -5394,16 +5338,16 @@
         <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F77" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>214</v>
       </c>
@@ -5411,16 +5355,16 @@
         <v>220</v>
       </c>
       <c r="C78" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F78" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>214</v>
       </c>
@@ -5428,16 +5372,16 @@
         <v>220</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F79" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -5445,16 +5389,16 @@
         <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F80" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -5462,16 +5406,16 @@
         <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F81" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>214</v>
       </c>
@@ -5479,19 +5423,16 @@
         <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E82" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="F82" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -5499,16 +5440,19 @@
         <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
+      </c>
+      <c r="E83" t="s">
+        <v>406</v>
       </c>
       <c r="F83" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>214</v>
       </c>
@@ -5516,19 +5460,16 @@
         <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E84" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="F84" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>214</v>
       </c>
@@ -5536,19 +5477,19 @@
         <v>220</v>
       </c>
       <c r="C85" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E85" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F85" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>214</v>
       </c>
@@ -5556,19 +5497,19 @@
         <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E86" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F86" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>214</v>
       </c>
@@ -5576,19 +5517,19 @@
         <v>220</v>
       </c>
       <c r="C87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E87" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F87" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>214</v>
       </c>
@@ -5596,19 +5537,19 @@
         <v>220</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E88" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F88" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>214</v>
       </c>
@@ -5616,19 +5557,19 @@
         <v>220</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E89" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F89" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -5636,19 +5577,19 @@
         <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E90" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F90" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>214</v>
       </c>
@@ -5656,19 +5597,19 @@
         <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E91" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F91" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>214</v>
       </c>
@@ -5676,19 +5617,19 @@
         <v>220</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E92" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F92" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>214</v>
       </c>
@@ -5696,19 +5637,19 @@
         <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E93" t="s">
         <v>190</v>
       </c>
       <c r="F93" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>214</v>
       </c>
@@ -5716,19 +5657,19 @@
         <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E94" t="s">
         <v>190</v>
       </c>
       <c r="F94" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>214</v>
       </c>
@@ -5736,19 +5677,19 @@
         <v>221</v>
       </c>
       <c r="C95" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E95" t="s">
         <v>190</v>
       </c>
       <c r="F95" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>214</v>
       </c>
@@ -5756,19 +5697,19 @@
         <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E96" t="s">
         <v>190</v>
       </c>
       <c r="F96" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>214</v>
       </c>
@@ -5776,19 +5717,19 @@
         <v>221</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E97" t="s">
         <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>214</v>
       </c>
@@ -5796,10 +5737,10 @@
         <v>221</v>
       </c>
       <c r="C98" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E98" t="s">
         <v>190</v>
@@ -5808,7 +5749,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -5816,19 +5757,19 @@
         <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E99" t="s">
         <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>214</v>
       </c>
@@ -5836,19 +5777,19 @@
         <v>222</v>
       </c>
       <c r="C100" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E100" t="s">
         <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>214</v>
       </c>
@@ -5856,19 +5797,19 @@
         <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E101" t="s">
         <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>214</v>
       </c>
@@ -5876,19 +5817,19 @@
         <v>222</v>
       </c>
       <c r="C102" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E102" t="s">
         <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>214</v>
       </c>
@@ -5896,19 +5837,19 @@
         <v>222</v>
       </c>
       <c r="C103" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E103" t="s">
         <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>214</v>
       </c>
@@ -5916,19 +5857,19 @@
         <v>222</v>
       </c>
       <c r="C104" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E104" t="s">
         <v>190</v>
       </c>
       <c r="F104" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>214</v>
       </c>
@@ -5936,10 +5877,10 @@
         <v>223</v>
       </c>
       <c r="C105" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E105" t="s">
         <v>190</v>
@@ -5948,7 +5889,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>214</v>
       </c>
@@ -5956,10 +5897,10 @@
         <v>223</v>
       </c>
       <c r="C106" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E106" t="s">
         <v>190</v>
@@ -5968,7 +5909,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -5976,10 +5917,10 @@
         <v>223</v>
       </c>
       <c r="C107" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E107" t="s">
         <v>190</v>
@@ -5988,7 +5929,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -5996,10 +5937,10 @@
         <v>223</v>
       </c>
       <c r="C108" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E108" t="s">
         <v>190</v>
@@ -6008,7 +5949,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -6016,10 +5957,10 @@
         <v>223</v>
       </c>
       <c r="C109" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E109" t="s">
         <v>190</v>
@@ -6028,7 +5969,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>214</v>
       </c>
@@ -6036,10 +5977,10 @@
         <v>223</v>
       </c>
       <c r="C110" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E110" t="s">
         <v>190</v>
@@ -6048,7 +5989,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>214</v>
       </c>
@@ -6056,10 +5997,10 @@
         <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E111" t="s">
         <v>190</v>
@@ -6068,7 +6009,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>214</v>
       </c>
@@ -6076,10 +6017,10 @@
         <v>223</v>
       </c>
       <c r="C112" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E112" t="s">
         <v>190</v>
@@ -6090,131 +6031,131 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="D85" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="D86" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="D87" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="D88" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="D89" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6234,670 +6175,670 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B19" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" t="s">
+        <v>462</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B20" t="s">
         <v>443</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>439</v>
+      </c>
+      <c r="B21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" t="s">
+        <v>466</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" t="s">
+        <v>467</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>439</v>
+      </c>
+      <c r="B25" t="s">
         <v>444</v>
       </c>
-      <c r="C2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C25" t="s">
+        <v>468</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B26" t="s">
         <v>444</v>
       </c>
-      <c r="C3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F26" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" t="s">
         <v>444</v>
       </c>
-      <c r="C4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C27" t="s">
+        <v>470</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B28" t="s">
         <v>444</v>
       </c>
-      <c r="C5" t="s">
-        <v>453</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C28" t="s">
+        <v>471</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" t="s">
         <v>444</v>
       </c>
-      <c r="C6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C29" t="s">
+        <v>472</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F29" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" t="s">
         <v>444</v>
       </c>
-      <c r="C7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C30" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" t="s">
         <v>444</v>
       </c>
-      <c r="C8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C31" t="s">
+        <v>474</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F31" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>439</v>
+      </c>
+      <c r="B32" t="s">
         <v>444</v>
       </c>
-      <c r="C9" t="s">
-        <v>457</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C32" t="s">
+        <v>475</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F32" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>439</v>
+      </c>
+      <c r="B33" t="s">
         <v>445</v>
       </c>
-      <c r="C10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F10" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C33" t="s">
+        <v>476</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F33" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>439</v>
+      </c>
+      <c r="B34" t="s">
         <v>445</v>
       </c>
-      <c r="C11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>443</v>
-      </c>
-      <c r="B12" t="s">
-        <v>446</v>
-      </c>
-      <c r="C12" t="s">
-        <v>459</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B13" t="s">
-        <v>446</v>
-      </c>
-      <c r="C13" t="s">
-        <v>460</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B14" t="s">
-        <v>446</v>
-      </c>
-      <c r="C14" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>443</v>
-      </c>
-      <c r="B15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C15" t="s">
-        <v>462</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>443</v>
-      </c>
-      <c r="B16" t="s">
-        <v>446</v>
-      </c>
-      <c r="C16" t="s">
-        <v>463</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B17" t="s">
-        <v>446</v>
-      </c>
-      <c r="C17" t="s">
-        <v>464</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>443</v>
-      </c>
-      <c r="B18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C18" t="s">
-        <v>465</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>443</v>
-      </c>
-      <c r="B19" t="s">
-        <v>446</v>
-      </c>
-      <c r="C19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>443</v>
-      </c>
-      <c r="B20" t="s">
-        <v>447</v>
-      </c>
-      <c r="C20" t="s">
-        <v>467</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F20" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>443</v>
-      </c>
-      <c r="B21" t="s">
-        <v>447</v>
-      </c>
-      <c r="C21" t="s">
-        <v>468</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F21" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>443</v>
-      </c>
-      <c r="B22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C22" t="s">
-        <v>469</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F22" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>443</v>
-      </c>
-      <c r="B23" t="s">
-        <v>447</v>
-      </c>
-      <c r="C23" t="s">
-        <v>470</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F23" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>443</v>
-      </c>
-      <c r="B24" t="s">
-        <v>447</v>
-      </c>
-      <c r="C24" t="s">
-        <v>471</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F24" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>443</v>
-      </c>
-      <c r="B25" t="s">
-        <v>448</v>
-      </c>
-      <c r="C25" t="s">
-        <v>472</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F25" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>443</v>
-      </c>
-      <c r="B26" t="s">
-        <v>448</v>
-      </c>
-      <c r="C26" t="s">
-        <v>473</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F26" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>443</v>
-      </c>
-      <c r="B27" t="s">
-        <v>448</v>
-      </c>
-      <c r="C27" t="s">
-        <v>474</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F27" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" t="s">
-        <v>448</v>
-      </c>
-      <c r="C28" t="s">
-        <v>475</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F28" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>443</v>
-      </c>
-      <c r="B29" t="s">
-        <v>448</v>
-      </c>
-      <c r="C29" t="s">
-        <v>476</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>443</v>
-      </c>
-      <c r="B30" t="s">
-        <v>448</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>477</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F34" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>443</v>
-      </c>
-      <c r="B31" t="s">
-        <v>448</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>439</v>
+      </c>
+      <c r="B35" t="s">
+        <v>445</v>
+      </c>
+      <c r="C35" t="s">
         <v>478</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F35" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>443</v>
-      </c>
-      <c r="B32" t="s">
-        <v>448</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36" t="s">
+        <v>445</v>
+      </c>
+      <c r="C36" t="s">
         <v>479</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F36" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>443</v>
-      </c>
-      <c r="B33" t="s">
-        <v>449</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B37" t="s">
+        <v>445</v>
+      </c>
+      <c r="C37" t="s">
         <v>480</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F37" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>443</v>
-      </c>
-      <c r="B34" t="s">
-        <v>449</v>
-      </c>
-      <c r="C34" t="s">
-        <v>481</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F34" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>443</v>
-      </c>
-      <c r="B35" t="s">
-        <v>449</v>
-      </c>
-      <c r="C35" t="s">
-        <v>482</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F35" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>443</v>
-      </c>
-      <c r="B36" t="s">
-        <v>449</v>
-      </c>
-      <c r="C36" t="s">
-        <v>483</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F36" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>443</v>
-      </c>
-      <c r="B37" t="s">
-        <v>449</v>
-      </c>
-      <c r="C37" t="s">
-        <v>484</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F37" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6917,159 +6858,159 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C7" t="s">
         <v>546</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" t="s">
         <v>547</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" t="s">
-        <v>537</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C9" t="s">
         <v>548</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" t="s">
-        <v>537</v>
-      </c>
-      <c r="C6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" t="s">
-        <v>537</v>
-      </c>
-      <c r="C7" t="s">
-        <v>551</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" t="s">
-        <v>537</v>
-      </c>
-      <c r="C8" t="s">
-        <v>552</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="E8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" t="s">
-        <v>537</v>
-      </c>
-      <c r="C9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="E9" t="s">
         <v>190</v>
       </c>
@@ -7077,18 +7018,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>548</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>325</v>
+        <v>610</v>
       </c>
       <c r="E10" t="s">
         <v>190</v>
@@ -7097,18 +7038,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>214</v>
       </c>
       <c r="B11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C11" t="s">
         <v>250</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E11" t="s">
         <v>190</v>
@@ -7117,18 +7058,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>214</v>
       </c>
       <c r="B12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C12" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E12" t="s">
         <v>190</v>
@@ -7137,18 +7078,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>214</v>
       </c>
       <c r="B13" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C13" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E13" t="s">
         <v>190</v>
@@ -7157,18 +7098,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C14" t="s">
         <v>249</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E14" t="s">
         <v>190</v>
@@ -7177,18 +7118,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C15" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E15" t="s">
         <v>190</v>
@@ -7197,18 +7138,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E16" t="s">
         <v>190</v>
@@ -7217,18 +7158,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C17" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E17" t="s">
         <v>190</v>
@@ -7237,18 +7178,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>214</v>
       </c>
       <c r="B18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C18" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E18" t="s">
         <v>190</v>
@@ -7257,18 +7198,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>214</v>
       </c>
       <c r="B19" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C19" t="s">
         <v>250</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E19" t="s">
         <v>190</v>
@@ -7277,1064 +7218,1064 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>214</v>
       </c>
       <c r="B20" t="s">
+        <v>535</v>
+      </c>
+      <c r="C20" t="s">
+        <v>554</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C21" t="s">
+        <v>555</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>535</v>
+      </c>
+      <c r="C22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" t="s">
+        <v>535</v>
+      </c>
+      <c r="C23" t="s">
+        <v>556</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>536</v>
+      </c>
+      <c r="C25" t="s">
+        <v>558</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" t="s">
+        <v>558</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s">
+        <v>536</v>
+      </c>
+      <c r="C27" t="s">
+        <v>558</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>536</v>
+      </c>
+      <c r="C28" t="s">
+        <v>559</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" t="s">
+        <v>536</v>
+      </c>
+      <c r="C29" t="s">
+        <v>547</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>536</v>
+      </c>
+      <c r="C30" t="s">
+        <v>560</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" t="s">
+        <v>536</v>
+      </c>
+      <c r="C31" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" t="s">
+        <v>536</v>
+      </c>
+      <c r="C32" t="s">
+        <v>562</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" t="s">
+        <v>537</v>
+      </c>
+      <c r="C33" t="s">
+        <v>563</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F33" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" t="s">
+        <v>537</v>
+      </c>
+      <c r="C34" t="s">
+        <v>564</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F34" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C35" t="s">
+        <v>565</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F35" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" t="s">
+        <v>537</v>
+      </c>
+      <c r="C36" t="s">
+        <v>566</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F36" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" t="s">
+        <v>537</v>
+      </c>
+      <c r="C37" t="s">
+        <v>567</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F37" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" t="s">
+        <v>537</v>
+      </c>
+      <c r="C38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F38" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s">
+        <v>537</v>
+      </c>
+      <c r="C39" t="s">
+        <v>569</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F39" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s">
+        <v>537</v>
+      </c>
+      <c r="C40" t="s">
+        <v>570</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F40" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" t="s">
+        <v>537</v>
+      </c>
+      <c r="C41" t="s">
+        <v>571</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F41" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" t="s">
+        <v>538</v>
+      </c>
+      <c r="C42" t="s">
+        <v>572</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" t="s">
+        <v>538</v>
+      </c>
+      <c r="C43" t="s">
+        <v>573</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" t="s">
+        <v>538</v>
+      </c>
+      <c r="C44" t="s">
+        <v>574</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" t="s">
+        <v>538</v>
+      </c>
+      <c r="C45" t="s">
+        <v>575</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" t="s">
+        <v>538</v>
+      </c>
+      <c r="C46" t="s">
+        <v>576</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" t="s">
+        <v>538</v>
+      </c>
+      <c r="C47" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" t="s">
+        <v>538</v>
+      </c>
+      <c r="C48" t="s">
+        <v>578</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>538</v>
+      </c>
+      <c r="C49" t="s">
+        <v>579</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" t="s">
+        <v>538</v>
+      </c>
+      <c r="C50" t="s">
+        <v>580</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" t="s">
+        <v>538</v>
+      </c>
+      <c r="C51" t="s">
+        <v>581</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" t="s">
         <v>539</v>
       </c>
-      <c r="C20" t="s">
-        <v>558</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C52" t="s">
+        <v>582</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" t="s">
         <v>539</v>
       </c>
-      <c r="C21" t="s">
-        <v>559</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C53" t="s">
+        <v>583</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E53" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" t="s">
         <v>539</v>
       </c>
-      <c r="C22" t="s">
-        <v>554</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="E22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C54" t="s">
+        <v>584</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" t="s">
         <v>539</v>
       </c>
-      <c r="C23" t="s">
-        <v>560</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E23" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C55" t="s">
+        <v>585</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" t="s">
         <v>539</v>
       </c>
-      <c r="C24" t="s">
-        <v>561</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="E24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C56" t="s">
+        <v>586</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s">
+        <v>539</v>
+      </c>
+      <c r="C57" t="s">
+        <v>587</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>539</v>
+      </c>
+      <c r="C58" t="s">
+        <v>588</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" t="s">
+        <v>539</v>
+      </c>
+      <c r="C59" t="s">
+        <v>589</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" t="s">
         <v>540</v>
       </c>
-      <c r="C25" t="s">
-        <v>562</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C60" t="s">
+        <v>584</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" t="s">
         <v>540</v>
       </c>
-      <c r="C26" t="s">
-        <v>562</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C61" t="s">
+        <v>590</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E61" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" t="s">
         <v>540</v>
       </c>
-      <c r="C27" t="s">
-        <v>562</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E27" t="s">
-        <v>190</v>
-      </c>
-      <c r="F27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C62" t="s">
+        <v>591</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" t="s">
         <v>540</v>
       </c>
-      <c r="C28" t="s">
-        <v>563</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E28" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C63" t="s">
+        <v>585</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E63" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" t="s">
         <v>540</v>
       </c>
-      <c r="C29" t="s">
-        <v>551</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C64" t="s">
+        <v>592</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E64" t="s">
+        <v>190</v>
+      </c>
+      <c r="F64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" t="s">
         <v>540</v>
       </c>
-      <c r="C30" t="s">
-        <v>550</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C65" t="s">
+        <v>593</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" t="s">
         <v>540</v>
       </c>
-      <c r="C31" t="s">
-        <v>564</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E31" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C66" t="s">
+        <v>594</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" t="s">
         <v>540</v>
       </c>
-      <c r="C32" t="s">
-        <v>565</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E32" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C67" t="s">
+        <v>595</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E67" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" t="s">
         <v>541</v>
       </c>
-      <c r="C33" t="s">
-        <v>566</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="F33" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" t="s">
-        <v>541</v>
-      </c>
-      <c r="C34" t="s">
-        <v>567</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="F34" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" t="s">
-        <v>541</v>
-      </c>
-      <c r="C35" t="s">
-        <v>568</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F35" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" t="s">
-        <v>541</v>
-      </c>
-      <c r="C36" t="s">
-        <v>569</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F36" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" t="s">
-        <v>541</v>
-      </c>
-      <c r="C37" t="s">
-        <v>570</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F37" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" t="s">
-        <v>541</v>
-      </c>
-      <c r="C38" t="s">
-        <v>571</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F38" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" t="s">
-        <v>541</v>
-      </c>
-      <c r="C39" t="s">
-        <v>572</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="F39" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" t="s">
-        <v>541</v>
-      </c>
-      <c r="C40" t="s">
-        <v>573</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F40" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" t="s">
-        <v>541</v>
-      </c>
-      <c r="C41" t="s">
-        <v>574</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F41" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B42" t="s">
-        <v>542</v>
-      </c>
-      <c r="C42" t="s">
-        <v>575</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43" t="s">
-        <v>542</v>
-      </c>
-      <c r="C43" t="s">
-        <v>576</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F43" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" t="s">
-        <v>542</v>
-      </c>
-      <c r="C44" t="s">
-        <v>577</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="F44" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>214</v>
-      </c>
-      <c r="B45" t="s">
-        <v>542</v>
-      </c>
-      <c r="C45" t="s">
-        <v>578</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F45" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>214</v>
-      </c>
-      <c r="B46" t="s">
-        <v>542</v>
-      </c>
-      <c r="C46" t="s">
-        <v>579</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="F46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>214</v>
-      </c>
-      <c r="B47" t="s">
-        <v>542</v>
-      </c>
-      <c r="C47" t="s">
-        <v>580</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F47" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" t="s">
-        <v>542</v>
-      </c>
-      <c r="C48" t="s">
-        <v>581</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>214</v>
-      </c>
-      <c r="B49" t="s">
-        <v>542</v>
-      </c>
-      <c r="C49" t="s">
-        <v>582</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F49" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" t="s">
-        <v>542</v>
-      </c>
-      <c r="C50" t="s">
-        <v>583</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C68" t="s">
+        <v>596</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="F50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>214</v>
-      </c>
-      <c r="B51" t="s">
-        <v>542</v>
-      </c>
-      <c r="C51" t="s">
-        <v>584</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" t="s">
-        <v>543</v>
-      </c>
-      <c r="C52" t="s">
-        <v>585</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E52" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>214</v>
-      </c>
-      <c r="B53" t="s">
-        <v>543</v>
-      </c>
-      <c r="C53" t="s">
-        <v>586</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E53" t="s">
-        <v>190</v>
-      </c>
-      <c r="F53" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" t="s">
-        <v>543</v>
-      </c>
-      <c r="C54" t="s">
-        <v>587</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E54" t="s">
-        <v>190</v>
-      </c>
-      <c r="F54" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>214</v>
-      </c>
-      <c r="B55" t="s">
-        <v>543</v>
-      </c>
-      <c r="C55" t="s">
-        <v>588</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E55" t="s">
-        <v>190</v>
-      </c>
-      <c r="F55" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>214</v>
-      </c>
-      <c r="B56" t="s">
-        <v>543</v>
-      </c>
-      <c r="C56" t="s">
-        <v>589</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>214</v>
-      </c>
-      <c r="B57" t="s">
-        <v>543</v>
-      </c>
-      <c r="C57" t="s">
-        <v>590</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E57" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" t="s">
-        <v>543</v>
-      </c>
-      <c r="C58" t="s">
-        <v>591</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E58" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>214</v>
-      </c>
-      <c r="B59" t="s">
-        <v>543</v>
-      </c>
-      <c r="C59" t="s">
-        <v>592</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E59" t="s">
-        <v>190</v>
-      </c>
-      <c r="F59" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>214</v>
-      </c>
-      <c r="B60" t="s">
-        <v>544</v>
-      </c>
-      <c r="C60" t="s">
-        <v>587</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E60" t="s">
-        <v>190</v>
-      </c>
-      <c r="F60" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>214</v>
-      </c>
-      <c r="B61" t="s">
-        <v>544</v>
-      </c>
-      <c r="C61" t="s">
-        <v>593</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E61" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>214</v>
-      </c>
-      <c r="B62" t="s">
-        <v>544</v>
-      </c>
-      <c r="C62" t="s">
-        <v>594</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E62" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" t="s">
-        <v>544</v>
-      </c>
-      <c r="C63" t="s">
-        <v>586</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E63" t="s">
-        <v>190</v>
-      </c>
-      <c r="F63" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>214</v>
-      </c>
-      <c r="B64" t="s">
-        <v>544</v>
-      </c>
-      <c r="C64" t="s">
-        <v>595</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E64" t="s">
-        <v>190</v>
-      </c>
-      <c r="F64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>214</v>
-      </c>
-      <c r="B65" t="s">
-        <v>544</v>
-      </c>
-      <c r="C65" t="s">
-        <v>596</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E65" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>214</v>
-      </c>
-      <c r="B66" t="s">
-        <v>544</v>
-      </c>
-      <c r="C66" t="s">
-        <v>597</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E66" t="s">
-        <v>190</v>
-      </c>
-      <c r="F66" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>214</v>
-      </c>
-      <c r="B67" t="s">
-        <v>544</v>
-      </c>
-      <c r="C67" t="s">
-        <v>598</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E67" t="s">
-        <v>190</v>
-      </c>
-      <c r="F67" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>214</v>
-      </c>
-      <c r="B68" t="s">
-        <v>545</v>
-      </c>
-      <c r="C68" t="s">
-        <v>599</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="E68" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F68" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>214</v>
       </c>
       <c r="B69" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C69" t="s">
+        <v>597</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E69" t="s">
+        <v>653</v>
+      </c>
+      <c r="F69" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" t="s">
+        <v>541</v>
+      </c>
+      <c r="C70" t="s">
+        <v>598</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E70" t="s">
+        <v>654</v>
+      </c>
+      <c r="F70" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>541</v>
+      </c>
+      <c r="C71" t="s">
+        <v>599</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E71" t="s">
+        <v>655</v>
+      </c>
+      <c r="F71" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C72" t="s">
         <v>600</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="E69" t="s">
-        <v>655</v>
-      </c>
-      <c r="F69" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>214</v>
-      </c>
-      <c r="B70" t="s">
-        <v>545</v>
-      </c>
-      <c r="C70" t="s">
-        <v>601</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E72" t="s">
         <v>656</v>
-      </c>
-      <c r="F70" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>214</v>
-      </c>
-      <c r="B71" t="s">
-        <v>545</v>
-      </c>
-      <c r="C71" t="s">
-        <v>602</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E71" t="s">
-        <v>657</v>
-      </c>
-      <c r="F71" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>214</v>
-      </c>
-      <c r="B72" t="s">
-        <v>545</v>
-      </c>
-      <c r="C72" t="s">
-        <v>603</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="E72" t="s">
-        <v>658</v>
       </c>
       <c r="F72" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C73" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E73" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F73" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C74" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E74" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F74" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>214</v>
       </c>
       <c r="B75" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C75" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E75" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F75" t="s">
         <v>198</v>
@@ -8342,80 +8283,80 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
-    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_update.xlsx
+++ b/daily_update.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/python.scrapers-daily-update/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_8CF5612D2D6DC6A00A7331067BAA28E621DCF48A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gov" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="opeds" sheetId="3" r:id="rId3"/>
     <sheet name="stembiz" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="664">
   <si>
     <t>type</t>
   </si>
@@ -812,21 +818,6 @@
     <t>U.S. Job Growth Slows but Remains Solid</t>
   </si>
   <si>
-    <t>FDA approves a second Alzheimer’s treatment showing modest benefits for patients</t>
-  </si>
-  <si>
-    <t>EPA avoids most stringent picks in key water, air rules</t>
-  </si>
-  <si>
-    <t>Mount Sinai starts transferring babies out of its intensive care units ahead of a looming nurses strike</t>
-  </si>
-  <si>
-    <t>DeSantis overhauls leadership at New College, Florida’s liberal arts university</t>
-  </si>
-  <si>
-    <t>Day 4, so far: McCarthy picks up key votes, not enough to win speakership</t>
-  </si>
-  <si>
     <t>Baby formula whitewash alleged</t>
   </si>
   <si>
@@ -869,6 +860,24 @@
     <t>POLITICO Playbook PM: McCarthy finally gets some momentum</t>
   </si>
   <si>
+    <t>Who repped who in the Jan. 6 probe: A look at the frequently used witness lawyers</t>
+  </si>
+  <si>
+    <t>Miami Democrats face internal feud after disastrous 2022 midterms</t>
+  </si>
+  <si>
+    <t>Cut bait: European Commission bans Cameroonian seafood</t>
+  </si>
+  <si>
+    <t>Minnesota man gets probation for killing bear in backyard</t>
+  </si>
+  <si>
+    <t>Biden signs water bills benefiting 3 Arizona tribes</t>
+  </si>
+  <si>
+    <t>Stellantis looks to 'accelerate' cost cuts over EV prices</t>
+  </si>
+  <si>
     <t>China’s TikTok wins while U.S. dillydallies</t>
   </si>
   <si>
@@ -1106,7 +1115,7 @@
     <t>https://www.nytimes.com/2023/01/06/us/california-storms-trees.html</t>
   </si>
   <si>
-    <t>https://www.nytimes.com/2023/01/06/us/politics/drone-civilian-deaths-afghanistan.html</t>
+    <t>https://www.nytimes.com/2023/01/06/us/uvalde-mother-arrested-oklahoma.html</t>
   </si>
   <si>
     <t>https://www.nytimes.com/2023/01/06/climate/epa-soot-pollution-biden.html</t>
@@ -1130,24 +1139,6 @@
     <t>https://theathletic.com/4060678/2023/01/06/ottawa-senators-sale-new-ownership/</t>
   </si>
   <si>
-    <t>https://fda.agencyiq.com/article/2023/01/06/fda-approves-a-second-alzheimers-treatment-showing-modest-benefits-for-patients-00076733</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/newsletter/2023/01/epa-avoids-most-stringent-picks-in-key-water-air-rules-00076771</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/article/2023/01/fda-approves-a-second-alzheimers-treatment-showing-modest-benefits-for-patients-00076733</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/article/2023/01/mount-sinai-starts-transferring-babies-out-of-its-intensive-care-units-ahead-of-a-looming-nurses-strike-00076808</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/article/2023/01/desantis-overhauls-leadership-at-new-college-floridas-liberal-arts-university-00076796</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/video/2023/01/06/day-4-so-far-mccarthy-picks-up-key-votes-not-enough-to-win-speakership-809191</t>
-  </si>
-  <si>
     <t>https://www.politico.com/newsletters/future-pulse/2023/01/06/baby-formula-whitewash-alleged-00076642</t>
   </si>
   <si>
@@ -1190,6 +1181,24 @@
     <t>https://www.politico.com/newsletters/playbook-pm/2023/01/06/mccarthy-finally-gets-some-momentum-00076766</t>
   </si>
   <si>
+    <t>https://www.politico.com/news/2023/01/06/jan-6-probe-witness-lawyers-00076779</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/news/2023/01/06/miami-democrats-feud-audit-2022-midterms-00076758</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/eenews/article/eenews/2023/01/06/cut-bait-european-commission-bans-cameroonian-seafood-00076748</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/eenews/article/eenews/2023/01/06/minnesota-man-gets-probation-for-killing-bear-in-backyard-00076746</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/eenews/article/eenews/2023/01/06/biden-signs-water-bills-benefiting-3-arizona-tribes-00076754</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/eenews/article/eenews/2023/01/06/stellantis-looks-to-accelerate-cost-cuts-over-ev-prices-00076751</t>
+  </si>
+  <si>
     <t>https://www.reuters.com/breakingviews/</t>
   </si>
   <si>
@@ -1236,18 +1245,6 @@
   </si>
   <si>
     <t>Ukraine has dis­missed an of­fer from Russ­ian Pres­i­dent Vladimir Putin for a 36-hour cease­fire over Or­tho­dox Christ­mas, say­ing there would be no truce un­til Rus­sia with­draws its forces from oc­cu­pied ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The agency granted accelerated approval to Leqembi on Friday
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The EPA finalized a rule that seeks to cut a middle path between Obama’s expansive 2015 definition and the Trump administration’s narrow Navigable Waters Protection Rule. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 5,000 members of the New York State Nurses Association are preparing to strike at three Sinai hospitals if they do not reach a tentative deal before Monday.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Advocates are gearing up for new legislative fights to step up sustainability, while industry members are accelerating their own agenda. 
@@ -1286,27 +1283,36 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">We reviewed reams of witness transcripts released by the Jan. 6 select committee to identify the lawyers often tapped by the witnesses.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ten of county party's 257 officials calling for statewide party to conduct an audit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon is one of four non-E.U. countries that are currently on the commission's "red card" list, alongside St. Vincent and the Grenadines, the Comoros and Cambodia.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Thielen, 42, said the black bear was killing ducks and chickens on his property and caused $2,500 in damage. He said he asked the state Department of Natural Resources twice for help. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Colorado River Indian Tribes, based in Parker, Ariz., will be able to lease water from the Colorado River. The tribal group has one of the oldest, largest and most secure allocations of water in the entire river basin, which stretches into seven states in the U.S. West.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without cost reductions, EVs will be too expensive for the middle class, shrinking the market and driving costs up more, the car company's CEO told reporters Thursday at the CES gadget show in Las Vegas.
+</t>
+  </si>
+  <si>
     <t>6 Jan 2023</t>
   </si>
   <si>
     <t>5 Jan 2023</t>
   </si>
   <si>
-    <t>01/06/23 02:31 PM EST</t>
-  </si>
-  <si>
-    <t>01/06/23 02:27 PM EST</t>
-  </si>
-  <si>
-    <t>01/06/23 02:19 PM EST</t>
-  </si>
-  <si>
-    <t>01/06/23 02:04 PM EST</t>
-  </si>
-  <si>
-    <t>01/06/23 02:03 PM EST</t>
-  </si>
-  <si>
     <t>01/06/23 02:00 PM EST</t>
   </si>
   <si>
@@ -1332,6 +1338,18 @@
   </si>
   <si>
     <t>01/06/23 01:36 PM EST</t>
+  </si>
+  <si>
+    <t>01/06/23 01:26 PM EST</t>
+  </si>
+  <si>
+    <t>01/06/23 01:20 PM EST</t>
+  </si>
+  <si>
+    <t>01/06/23 01:15 PM EST</t>
+  </si>
+  <si>
+    <t>01/06/23 01:14 PM EST</t>
   </si>
   <si>
     <t>undefined ago</t>
@@ -1609,7 +1627,7 @@
     <t>JANUARY 5, 2023</t>
   </si>
   <si>
-    <t>in 8 minutes</t>
+    <t>in 3 minutes</t>
   </si>
   <si>
     <t>about 1 hour ago</t>
@@ -1642,7 +1660,7 @@
     <t>October 25, 2022</t>
   </si>
   <si>
-    <t>14 min ago</t>
+    <t>19 min ago</t>
   </si>
   <si>
     <t>4 hr ago</t>
@@ -1741,9 +1759,6 @@
     <t>CES 2023: Russian exhibitors barred from displaying tech</t>
   </si>
   <si>
-    <t>Russia’s hypersonic missile-armed ship to patrol global seas</t>
-  </si>
-  <si>
     <t>FTC proposes rule that would ban employee noncompete clauses</t>
   </si>
   <si>
@@ -1804,7 +1819,7 @@
     <t>Jimmy Lee on the Markets (Radio)</t>
   </si>
   <si>
-    <t>Tesla short sellers pile on pressure after most profitable trade in 2022, article with imageMarketscategory · January 6, 2023 · 6:38 PM UTC · undefined agoFresh off their most profitable year ever, short sellers targeting Tesla Inc's stock are heaping more pressure on the electric vehicle maker led by Elon Musk.</t>
+    <t>Tesla short sellers pile on pressure after most profitable trade in 2022, article with imageMarketscategory · January 6, 2023 · 6:38 PM UTCFresh off their most profitable year ever, short sellers targeting Tesla Inc's stock are heaping more pressure on the electric vehicle maker led by Elon Musk.</t>
   </si>
   <si>
     <t>MarketscategoryWood's Ark Invest nearly liquidates Silvergate Capital position, article with image4:52 PM UTC</t>
@@ -1927,9 +1942,6 @@
     <t>https://www.apnews.com/article/technology-consumer-electronics-show-gary-shapiro-business-577ffe6f49dd7f53a1415d690583001f</t>
   </si>
   <si>
-    <t>https://www.apnews.com/article/putin-technology-politics-russia-government-561c5501aeb8f3ae40af1789ec237103</t>
-  </si>
-  <si>
     <t>https://www.apnews.com/article/biden-technology-politics-business-9fb699837e8bf8ecd9c70dcf27699dcf</t>
   </si>
   <si>
@@ -2041,7 +2053,7 @@
     <t>Jan 6, 2023</t>
   </si>
   <si>
-    <t>3 minutes ago</t>
+    <t>10 minutes ago</t>
   </si>
   <si>
     <t>7 hours ago</t>
@@ -2050,8 +2062,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2127,6 +2139,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2173,7 +2193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2205,9 +2225,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2239,6 +2277,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2414,14 +2470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2444,7 +2500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2464,7 +2520,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +2540,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2501,7 +2557,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2574,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2535,7 +2591,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2552,7 +2608,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2569,7 +2625,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2642,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2603,7 +2659,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2620,7 +2676,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2637,7 +2693,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2654,7 +2710,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2671,7 +2727,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2688,7 +2744,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2705,7 +2761,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2722,7 +2778,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2739,7 +2795,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2756,7 +2812,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2773,7 +2829,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2790,7 +2846,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2807,7 +2863,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2824,7 +2880,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2841,7 +2897,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2858,7 +2914,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2875,7 +2931,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2892,7 +2948,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2909,7 +2965,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2926,7 +2982,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2943,7 +2999,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2960,7 +3016,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2977,7 +3033,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2994,7 +3050,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3011,7 +3067,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +3084,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3045,7 +3101,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3062,7 +3118,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3079,7 +3135,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -3096,7 +3152,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -3113,7 +3169,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -3133,7 +3189,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -3153,7 +3209,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -3173,7 +3229,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -3190,7 +3246,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -3207,7 +3263,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -3227,7 +3283,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -3247,7 +3303,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -3267,7 +3323,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3287,7 +3343,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3307,7 +3363,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3383,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3347,7 +3403,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3367,7 +3423,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -3384,7 +3440,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -3401,7 +3457,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3418,7 +3474,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3435,7 +3491,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3452,7 +3508,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3469,7 +3525,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -3486,7 +3542,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3503,7 +3559,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3523,7 +3579,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3599,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3563,7 +3619,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3583,7 +3639,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3603,7 +3659,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3623,7 +3679,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3643,7 +3699,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3663,7 +3719,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3683,7 +3739,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3703,7 +3759,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3723,7 +3779,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3743,7 +3799,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3763,7 +3819,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3839,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3803,7 +3859,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3823,7 +3879,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3843,7 +3899,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3863,7 +3919,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3883,7 +3939,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3903,7 +3959,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3925,99 +3981,99 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D42" r:id="rId40"/>
-    <hyperlink ref="D43" r:id="rId41"/>
-    <hyperlink ref="D44" r:id="rId42"/>
-    <hyperlink ref="D45" r:id="rId43"/>
-    <hyperlink ref="D46" r:id="rId44"/>
-    <hyperlink ref="D47" r:id="rId45"/>
-    <hyperlink ref="D48" r:id="rId46"/>
-    <hyperlink ref="D49" r:id="rId47"/>
-    <hyperlink ref="D50" r:id="rId48"/>
-    <hyperlink ref="D51" r:id="rId49"/>
-    <hyperlink ref="D52" r:id="rId50"/>
-    <hyperlink ref="D53" r:id="rId51"/>
-    <hyperlink ref="D54" r:id="rId52"/>
-    <hyperlink ref="D55" r:id="rId53"/>
-    <hyperlink ref="D56" r:id="rId54"/>
-    <hyperlink ref="D57" r:id="rId55"/>
-    <hyperlink ref="D58" r:id="rId56"/>
-    <hyperlink ref="D59" r:id="rId57"/>
-    <hyperlink ref="D60" r:id="rId58"/>
-    <hyperlink ref="D61" r:id="rId59"/>
-    <hyperlink ref="D63" r:id="rId60"/>
-    <hyperlink ref="D64" r:id="rId61"/>
-    <hyperlink ref="D65" r:id="rId62"/>
-    <hyperlink ref="D66" r:id="rId63"/>
-    <hyperlink ref="D67" r:id="rId64"/>
-    <hyperlink ref="D68" r:id="rId65"/>
-    <hyperlink ref="D69" r:id="rId66"/>
-    <hyperlink ref="D70" r:id="rId67"/>
-    <hyperlink ref="D71" r:id="rId68"/>
-    <hyperlink ref="D72" r:id="rId69"/>
-    <hyperlink ref="D73" r:id="rId70"/>
-    <hyperlink ref="D74" r:id="rId71"/>
-    <hyperlink ref="D75" r:id="rId72"/>
-    <hyperlink ref="D76" r:id="rId73"/>
-    <hyperlink ref="D77" r:id="rId74"/>
-    <hyperlink ref="D78" r:id="rId75"/>
-    <hyperlink ref="D79" r:id="rId76"/>
-    <hyperlink ref="D80" r:id="rId77"/>
-    <hyperlink ref="D81" r:id="rId78"/>
-    <hyperlink ref="D82" r:id="rId79"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -4048,16 +4104,16 @@
         <v>224</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -4068,16 +4124,16 @@
         <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>214</v>
       </c>
@@ -4088,16 +4144,16 @@
         <v>226</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -4108,16 +4164,16 @@
         <v>227</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -4128,16 +4184,16 @@
         <v>228</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -4148,16 +4204,16 @@
         <v>229</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -4168,16 +4224,16 @@
         <v>230</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -4188,16 +4244,16 @@
         <v>231</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -4208,16 +4264,16 @@
         <v>232</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -4228,16 +4284,16 @@
         <v>233</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F11" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -4248,7 +4304,7 @@
         <v>234</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E12" t="s">
         <v>190</v>
@@ -4257,7 +4313,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -4268,7 +4324,7 @@
         <v>235</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E13" t="s">
         <v>190</v>
@@ -4277,7 +4333,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>214</v>
       </c>
@@ -4288,7 +4344,7 @@
         <v>236</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E14" t="s">
         <v>190</v>
@@ -4297,7 +4353,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -4308,7 +4364,7 @@
         <v>237</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E15" t="s">
         <v>190</v>
@@ -4317,7 +4373,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -4328,7 +4384,7 @@
         <v>238</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E16" t="s">
         <v>190</v>
@@ -4337,7 +4393,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -4348,7 +4404,7 @@
         <v>239</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E17" t="s">
         <v>190</v>
@@ -4357,7 +4413,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -4368,7 +4424,7 @@
         <v>240</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
         <v>190</v>
@@ -4377,7 +4433,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -4388,7 +4444,7 @@
         <v>241</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E19" t="s">
         <v>190</v>
@@ -4397,7 +4453,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>214</v>
       </c>
@@ -4408,7 +4464,7 @@
         <v>235</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E20" t="s">
         <v>190</v>
@@ -4417,7 +4473,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -4428,7 +4484,7 @@
         <v>242</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
         <v>190</v>
@@ -4437,7 +4493,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>214</v>
       </c>
@@ -4448,7 +4504,7 @@
         <v>243</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E22" t="s">
         <v>190</v>
@@ -4457,7 +4513,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>214</v>
       </c>
@@ -4468,7 +4524,7 @@
         <v>244</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E23" t="s">
         <v>190</v>
@@ -4477,7 +4533,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -4488,7 +4544,7 @@
         <v>245</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E24" t="s">
         <v>190</v>
@@ -4497,7 +4553,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -4508,7 +4564,7 @@
         <v>246</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E25" t="s">
         <v>190</v>
@@ -4517,7 +4573,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -4528,7 +4584,7 @@
         <v>237</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E26" t="s">
         <v>190</v>
@@ -4537,7 +4593,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -4548,7 +4604,7 @@
         <v>247</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E27" t="s">
         <v>190</v>
@@ -4557,7 +4613,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -4568,7 +4624,7 @@
         <v>248</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E28" t="s">
         <v>190</v>
@@ -4577,7 +4633,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>214</v>
       </c>
@@ -4588,7 +4644,7 @@
         <v>249</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E29" t="s">
         <v>190</v>
@@ -4597,7 +4653,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -4608,7 +4664,7 @@
         <v>250</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E30" t="s">
         <v>190</v>
@@ -4617,7 +4673,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -4628,7 +4684,7 @@
         <v>251</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E31" t="s">
         <v>190</v>
@@ -4637,7 +4693,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -4648,7 +4704,7 @@
         <v>252</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E32" t="s">
         <v>190</v>
@@ -4657,7 +4713,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>214</v>
       </c>
@@ -4668,7 +4724,7 @@
         <v>253</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E33" t="s">
         <v>190</v>
@@ -4677,7 +4733,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>214</v>
       </c>
@@ -4688,7 +4744,7 @@
         <v>254</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E34" t="s">
         <v>190</v>
@@ -4697,7 +4753,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -4708,7 +4764,7 @@
         <v>255</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E35" t="s">
         <v>190</v>
@@ -4717,7 +4773,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>214</v>
       </c>
@@ -4728,13 +4784,13 @@
         <v>256</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>214</v>
       </c>
@@ -4745,13 +4801,13 @@
         <v>257</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>214</v>
       </c>
@@ -4762,13 +4818,13 @@
         <v>258</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F38" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>214</v>
       </c>
@@ -4779,13 +4835,13 @@
         <v>259</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>214</v>
       </c>
@@ -4796,13 +4852,13 @@
         <v>260</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F40" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>214</v>
       </c>
@@ -4810,13 +4866,13 @@
         <v>219</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -4824,13 +4880,13 @@
         <v>219</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>214</v>
       </c>
@@ -4838,13 +4894,13 @@
         <v>219</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -4852,13 +4908,13 @@
         <v>219</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>214</v>
       </c>
@@ -4866,13 +4922,13 @@
         <v>219</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F45" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -4880,13 +4936,13 @@
         <v>219</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F46" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -4894,13 +4950,13 @@
         <v>219</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F47" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>214</v>
       </c>
@@ -4908,13 +4964,13 @@
         <v>219</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4922,13 +4978,13 @@
         <v>219</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F49" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>214</v>
       </c>
@@ -4936,13 +4992,13 @@
         <v>219</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>214</v>
       </c>
@@ -4950,13 +5006,13 @@
         <v>219</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F51" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>214</v>
       </c>
@@ -4964,13 +5020,13 @@
         <v>219</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -4978,13 +5034,13 @@
         <v>219</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F53" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -4992,13 +5048,13 @@
         <v>219</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F54" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -5006,13 +5062,13 @@
         <v>219</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F55" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -5020,13 +5076,13 @@
         <v>219</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F56" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>214</v>
       </c>
@@ -5034,13 +5090,13 @@
         <v>219</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F57" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -5048,13 +5104,13 @@
         <v>219</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F58" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -5062,13 +5118,13 @@
         <v>219</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F59" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>214</v>
       </c>
@@ -5076,13 +5132,13 @@
         <v>219</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F60" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>214</v>
       </c>
@@ -5090,13 +5146,13 @@
         <v>219</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F61" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>214</v>
       </c>
@@ -5104,13 +5160,13 @@
         <v>219</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F62" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -5118,13 +5174,13 @@
         <v>219</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F63" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -5132,13 +5188,13 @@
         <v>219</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F64" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>214</v>
       </c>
@@ -5146,13 +5202,13 @@
         <v>219</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F65" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -5160,13 +5216,13 @@
         <v>219</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F66" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -5174,13 +5230,13 @@
         <v>219</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F67" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>214</v>
       </c>
@@ -5188,13 +5244,13 @@
         <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F68" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -5202,13 +5258,13 @@
         <v>219</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F69" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -5216,13 +5272,13 @@
         <v>219</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F70" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -5230,13 +5286,13 @@
         <v>219</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F71" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -5244,13 +5300,13 @@
         <v>219</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F72" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -5261,16 +5317,13 @@
         <v>261</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E73" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="F73" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -5281,16 +5334,13 @@
         <v>262</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E74" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="F74" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>214</v>
       </c>
@@ -5298,19 +5348,16 @@
         <v>220</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E75" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="F75" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>214</v>
       </c>
@@ -5318,19 +5365,16 @@
         <v>220</v>
       </c>
       <c r="C76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E76" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="F76" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>214</v>
       </c>
@@ -5338,16 +5382,19 @@
         <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
+      </c>
+      <c r="E77" t="s">
+        <v>404</v>
       </c>
       <c r="F77" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>214</v>
       </c>
@@ -5355,16 +5402,16 @@
         <v>220</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F78" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>214</v>
       </c>
@@ -5372,16 +5419,19 @@
         <v>220</v>
       </c>
       <c r="C79" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
+      </c>
+      <c r="E79" t="s">
+        <v>405</v>
       </c>
       <c r="F79" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -5389,16 +5439,19 @@
         <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
+      </c>
+      <c r="E80" t="s">
+        <v>406</v>
       </c>
       <c r="F80" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -5406,16 +5459,19 @@
         <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="E81" t="s">
+        <v>407</v>
       </c>
       <c r="F81" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>214</v>
       </c>
@@ -5423,16 +5479,19 @@
         <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
+      </c>
+      <c r="E82" t="s">
+        <v>408</v>
       </c>
       <c r="F82" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -5440,19 +5499,19 @@
         <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E83" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F83" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>214</v>
       </c>
@@ -5460,16 +5519,19 @@
         <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
+      </c>
+      <c r="E84" t="s">
+        <v>410</v>
       </c>
       <c r="F84" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>214</v>
       </c>
@@ -5477,19 +5539,19 @@
         <v>220</v>
       </c>
       <c r="C85" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E85" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F85" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>214</v>
       </c>
@@ -5497,19 +5559,19 @@
         <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E86" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F86" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>214</v>
       </c>
@@ -5517,19 +5579,19 @@
         <v>220</v>
       </c>
       <c r="C87" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E87" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F87" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>214</v>
       </c>
@@ -5537,19 +5599,19 @@
         <v>220</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E88" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F88" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>214</v>
       </c>
@@ -5557,19 +5619,19 @@
         <v>220</v>
       </c>
       <c r="C89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E89" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F89" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -5577,19 +5639,19 @@
         <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E90" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F90" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>214</v>
       </c>
@@ -5597,19 +5659,19 @@
         <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E91" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F91" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>214</v>
       </c>
@@ -5617,19 +5679,19 @@
         <v>220</v>
       </c>
       <c r="C92" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E92" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F92" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>214</v>
       </c>
@@ -5637,19 +5699,19 @@
         <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E93" t="s">
         <v>190</v>
       </c>
       <c r="F93" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>214</v>
       </c>
@@ -5657,19 +5719,19 @@
         <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E94" t="s">
         <v>190</v>
       </c>
       <c r="F94" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>214</v>
       </c>
@@ -5677,19 +5739,19 @@
         <v>221</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E95" t="s">
         <v>190</v>
       </c>
       <c r="F95" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>214</v>
       </c>
@@ -5697,19 +5759,19 @@
         <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E96" t="s">
         <v>190</v>
       </c>
       <c r="F96" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>214</v>
       </c>
@@ -5717,19 +5779,19 @@
         <v>221</v>
       </c>
       <c r="C97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E97" t="s">
         <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>214</v>
       </c>
@@ -5737,10 +5799,10 @@
         <v>221</v>
       </c>
       <c r="C98" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E98" t="s">
         <v>190</v>
@@ -5749,7 +5811,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -5757,19 +5819,19 @@
         <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E99" t="s">
         <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>214</v>
       </c>
@@ -5777,19 +5839,19 @@
         <v>222</v>
       </c>
       <c r="C100" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E100" t="s">
         <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>214</v>
       </c>
@@ -5797,19 +5859,19 @@
         <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E101" t="s">
         <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>214</v>
       </c>
@@ -5817,19 +5879,19 @@
         <v>222</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E102" t="s">
         <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>214</v>
       </c>
@@ -5837,19 +5899,19 @@
         <v>222</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E103" t="s">
         <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>214</v>
       </c>
@@ -5857,19 +5919,19 @@
         <v>222</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E104" t="s">
         <v>190</v>
       </c>
       <c r="F104" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>214</v>
       </c>
@@ -5877,10 +5939,10 @@
         <v>223</v>
       </c>
       <c r="C105" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E105" t="s">
         <v>190</v>
@@ -5889,7 +5951,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>214</v>
       </c>
@@ -5897,10 +5959,10 @@
         <v>223</v>
       </c>
       <c r="C106" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E106" t="s">
         <v>190</v>
@@ -5909,7 +5971,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -5917,10 +5979,10 @@
         <v>223</v>
       </c>
       <c r="C107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E107" t="s">
         <v>190</v>
@@ -5929,7 +5991,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -5937,10 +5999,10 @@
         <v>223</v>
       </c>
       <c r="C108" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E108" t="s">
         <v>190</v>
@@ -5949,7 +6011,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -5957,10 +6019,10 @@
         <v>223</v>
       </c>
       <c r="C109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E109" t="s">
         <v>190</v>
@@ -5969,7 +6031,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>214</v>
       </c>
@@ -5977,10 +6039,10 @@
         <v>223</v>
       </c>
       <c r="C110" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E110" t="s">
         <v>190</v>
@@ -5989,7 +6051,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>214</v>
       </c>
@@ -5997,10 +6059,10 @@
         <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E111" t="s">
         <v>190</v>
@@ -6009,7 +6071,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>214</v>
       </c>
@@ -6017,10 +6079,10 @@
         <v>223</v>
       </c>
       <c r="C112" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E112" t="s">
         <v>190</v>
@@ -6031,131 +6093,133 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
-    <hyperlink ref="D101" r:id="rId100"/>
-    <hyperlink ref="D102" r:id="rId101"/>
-    <hyperlink ref="D103" r:id="rId102"/>
-    <hyperlink ref="D104" r:id="rId103"/>
-    <hyperlink ref="D105" r:id="rId104"/>
-    <hyperlink ref="D106" r:id="rId105"/>
-    <hyperlink ref="D107" r:id="rId106"/>
-    <hyperlink ref="D108" r:id="rId107"/>
-    <hyperlink ref="D109" r:id="rId108"/>
-    <hyperlink ref="D110" r:id="rId109"/>
-    <hyperlink ref="D111" r:id="rId110"/>
-    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="D85" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="D86" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="D87" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="D88" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="D89" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6175,670 +6239,670 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" t="s">
+        <v>461</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" t="s">
+        <v>462</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>442</v>
+      </c>
+      <c r="B17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" t="s">
+        <v>463</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C18" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" t="s">
+        <v>465</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" t="s">
         <v>446</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C20" t="s">
+        <v>466</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>442</v>
+      </c>
+      <c r="B21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" t="s">
+        <v>467</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F21" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C22" t="s">
+        <v>468</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F23" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>442</v>
+      </c>
+      <c r="B24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C24" t="s">
+        <v>470</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F24" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>442</v>
+      </c>
+      <c r="B25" t="s">
+        <v>447</v>
+      </c>
+      <c r="C25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C26" t="s">
+        <v>472</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>442</v>
+      </c>
+      <c r="B27" t="s">
+        <v>447</v>
+      </c>
+      <c r="C27" t="s">
+        <v>473</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>442</v>
+      </c>
+      <c r="B28" t="s">
+        <v>447</v>
+      </c>
+      <c r="C28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F28" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>442</v>
+      </c>
+      <c r="B29" t="s">
+        <v>447</v>
+      </c>
+      <c r="C29" t="s">
+        <v>475</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30" t="s">
+        <v>476</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>442</v>
+      </c>
+      <c r="B31" t="s">
+        <v>447</v>
+      </c>
+      <c r="C31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F31" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C32" t="s">
+        <v>478</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F32" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>442</v>
+      </c>
+      <c r="B33" t="s">
+        <v>448</v>
+      </c>
+      <c r="C33" t="s">
+        <v>479</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F33" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>442</v>
+      </c>
+      <c r="B34" t="s">
+        <v>448</v>
+      </c>
+      <c r="C34" t="s">
+        <v>480</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F34" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35" t="s">
+        <v>448</v>
+      </c>
+      <c r="C35" t="s">
         <v>481</v>
       </c>
-      <c r="F2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>442</v>
+      </c>
+      <c r="B36" t="s">
+        <v>448</v>
+      </c>
+      <c r="C36" t="s">
         <v>482</v>
       </c>
-      <c r="F3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D36" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F36" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37" t="s">
         <v>448</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C37" t="s">
         <v>483</v>
       </c>
-      <c r="F4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>439</v>
-      </c>
-      <c r="B6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C10" t="s">
-        <v>454</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F10" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C11" t="s">
-        <v>454</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F11" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12" t="s">
-        <v>442</v>
-      </c>
-      <c r="C12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B13" t="s">
-        <v>442</v>
-      </c>
-      <c r="C13" t="s">
-        <v>456</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14" t="s">
-        <v>457</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>439</v>
-      </c>
-      <c r="B15" t="s">
-        <v>442</v>
-      </c>
-      <c r="C15" t="s">
-        <v>458</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>439</v>
-      </c>
-      <c r="B16" t="s">
-        <v>442</v>
-      </c>
-      <c r="C16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>439</v>
-      </c>
-      <c r="B17" t="s">
-        <v>442</v>
-      </c>
-      <c r="C17" t="s">
-        <v>460</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>439</v>
-      </c>
-      <c r="B18" t="s">
-        <v>442</v>
-      </c>
-      <c r="C18" t="s">
-        <v>461</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>439</v>
-      </c>
-      <c r="B19" t="s">
-        <v>442</v>
-      </c>
-      <c r="C19" t="s">
-        <v>462</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>439</v>
-      </c>
-      <c r="B20" t="s">
-        <v>443</v>
-      </c>
-      <c r="C20" t="s">
-        <v>463</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>439</v>
-      </c>
-      <c r="B21" t="s">
-        <v>443</v>
-      </c>
-      <c r="C21" t="s">
-        <v>464</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D37" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>439</v>
-      </c>
-      <c r="B22" t="s">
-        <v>443</v>
-      </c>
-      <c r="C22" t="s">
-        <v>465</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F22" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>439</v>
-      </c>
-      <c r="B23" t="s">
-        <v>443</v>
-      </c>
-      <c r="C23" t="s">
-        <v>466</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F23" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>439</v>
-      </c>
-      <c r="B24" t="s">
-        <v>443</v>
-      </c>
-      <c r="C24" t="s">
-        <v>467</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F24" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>439</v>
-      </c>
-      <c r="B25" t="s">
-        <v>444</v>
-      </c>
-      <c r="C25" t="s">
-        <v>468</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F25" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>439</v>
-      </c>
-      <c r="B26" t="s">
-        <v>444</v>
-      </c>
-      <c r="C26" t="s">
-        <v>469</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F26" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>439</v>
-      </c>
-      <c r="B27" t="s">
-        <v>444</v>
-      </c>
-      <c r="C27" t="s">
-        <v>470</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F27" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>439</v>
-      </c>
-      <c r="B28" t="s">
-        <v>444</v>
-      </c>
-      <c r="C28" t="s">
-        <v>471</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F28" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>439</v>
-      </c>
-      <c r="B29" t="s">
-        <v>444</v>
-      </c>
-      <c r="C29" t="s">
-        <v>472</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F29" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>439</v>
-      </c>
-      <c r="B30" t="s">
-        <v>444</v>
-      </c>
-      <c r="C30" t="s">
-        <v>473</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F30" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>439</v>
-      </c>
-      <c r="B31" t="s">
-        <v>444</v>
-      </c>
-      <c r="C31" t="s">
-        <v>474</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>439</v>
-      </c>
-      <c r="B32" t="s">
-        <v>444</v>
-      </c>
-      <c r="C32" t="s">
-        <v>475</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F32" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>439</v>
-      </c>
-      <c r="B33" t="s">
-        <v>445</v>
-      </c>
-      <c r="C33" t="s">
-        <v>476</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F33" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>439</v>
-      </c>
-      <c r="B34" t="s">
-        <v>445</v>
-      </c>
-      <c r="C34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F34" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>439</v>
-      </c>
-      <c r="B35" t="s">
-        <v>445</v>
-      </c>
-      <c r="C35" t="s">
-        <v>478</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F35" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>439</v>
-      </c>
-      <c r="B36" t="s">
-        <v>445</v>
-      </c>
-      <c r="C36" t="s">
-        <v>479</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F36" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>439</v>
-      </c>
-      <c r="B37" t="s">
-        <v>445</v>
-      </c>
-      <c r="C37" t="s">
-        <v>480</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="F37" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6858,18 +6922,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C2" t="s">
         <v>243</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
         <v>190</v>
@@ -6878,18 +6942,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E3" t="s">
         <v>190</v>
@@ -6898,18 +6962,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C4" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E4" t="s">
         <v>190</v>
@@ -6918,18 +6982,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E5" t="s">
         <v>190</v>
@@ -6938,18 +7002,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E6" t="s">
         <v>190</v>
@@ -6958,18 +7022,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E7" t="s">
         <v>190</v>
@@ -6978,18 +7042,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E8" t="s">
         <v>190</v>
@@ -6998,18 +7062,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C9" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E9" t="s">
         <v>190</v>
@@ -7018,18 +7082,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E10" t="s">
         <v>190</v>
@@ -7038,18 +7102,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>214</v>
       </c>
       <c r="B11" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C11" t="s">
         <v>250</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
         <v>190</v>
@@ -7058,18 +7122,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>214</v>
       </c>
       <c r="B12" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C12" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E12" t="s">
         <v>190</v>
@@ -7078,18 +7142,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>214</v>
       </c>
       <c r="B13" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C13" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E13" t="s">
         <v>190</v>
@@ -7098,18 +7162,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C14" t="s">
         <v>249</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E14" t="s">
         <v>190</v>
@@ -7118,18 +7182,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C15" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E15" t="s">
         <v>190</v>
@@ -7138,18 +7202,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C16" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E16" t="s">
         <v>190</v>
@@ -7158,18 +7222,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C17" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E17" t="s">
         <v>190</v>
@@ -7178,18 +7242,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>214</v>
       </c>
       <c r="B18" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C18" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E18" t="s">
         <v>190</v>
@@ -7198,18 +7262,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>214</v>
       </c>
       <c r="B19" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C19" t="s">
         <v>250</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E19" t="s">
         <v>190</v>
@@ -7218,18 +7282,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>214</v>
       </c>
       <c r="B20" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C20" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E20" t="s">
         <v>190</v>
@@ -7238,18 +7302,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C21" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E21" t="s">
         <v>190</v>
@@ -7258,178 +7322,178 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>214</v>
       </c>
       <c r="B22" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" t="s">
+        <v>538</v>
+      </c>
+      <c r="C23" t="s">
+        <v>559</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" t="s">
+        <v>538</v>
+      </c>
+      <c r="C24" t="s">
+        <v>560</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" t="s">
+        <v>561</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C26" t="s">
+        <v>561</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s">
+        <v>539</v>
+      </c>
+      <c r="C27" t="s">
+        <v>561</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>539</v>
+      </c>
+      <c r="C28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" t="s">
+        <v>539</v>
+      </c>
+      <c r="C29" t="s">
+        <v>562</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>539</v>
+      </c>
+      <c r="C30" t="s">
         <v>550</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" t="s">
-        <v>535</v>
-      </c>
-      <c r="C23" t="s">
-        <v>556</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="E23" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" t="s">
-        <v>535</v>
-      </c>
-      <c r="C24" t="s">
-        <v>557</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" t="s">
-        <v>536</v>
-      </c>
-      <c r="C25" t="s">
-        <v>558</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" t="s">
-        <v>536</v>
-      </c>
-      <c r="C26" t="s">
-        <v>558</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" t="s">
-        <v>536</v>
-      </c>
-      <c r="C27" t="s">
-        <v>558</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E27" t="s">
-        <v>190</v>
-      </c>
-      <c r="F27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" t="s">
-        <v>536</v>
-      </c>
-      <c r="C28" t="s">
-        <v>559</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E28" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" t="s">
-        <v>536</v>
-      </c>
-      <c r="C29" t="s">
-        <v>547</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" t="s">
-        <v>536</v>
-      </c>
-      <c r="C30" t="s">
-        <v>560</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="E30" t="s">
         <v>190</v>
@@ -7438,18 +7502,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>214</v>
       </c>
       <c r="B31" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C31" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E31" t="s">
         <v>190</v>
@@ -7458,18 +7522,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C32" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E32" t="s">
         <v>190</v>
@@ -7478,341 +7542,341 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>214</v>
       </c>
       <c r="B33" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C33" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F33" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>214</v>
       </c>
       <c r="B34" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C34" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F34" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>214</v>
       </c>
       <c r="B35" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C35" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F35" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>214</v>
       </c>
       <c r="B36" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C36" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F36" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>214</v>
       </c>
       <c r="B37" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C37" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F37" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C38" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F38" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>214</v>
       </c>
       <c r="B39" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F39" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>214</v>
       </c>
       <c r="B40" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C40" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F40" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>214</v>
       </c>
       <c r="B41" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C41" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F41" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>214</v>
       </c>
       <c r="B42" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C42" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>214</v>
       </c>
       <c r="B43" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C43" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>214</v>
       </c>
       <c r="B44" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C44" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>214</v>
       </c>
       <c r="B45" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C45" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F45" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>214</v>
       </c>
       <c r="B46" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C46" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F46" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>214</v>
       </c>
       <c r="B47" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C47" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F47" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>214</v>
       </c>
       <c r="B48" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C48" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C49" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F49" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>214</v>
       </c>
       <c r="B50" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C50" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C51" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F51" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>214</v>
       </c>
       <c r="B52" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C52" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E52" t="s">
         <v>190</v>
@@ -7821,18 +7885,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>214</v>
       </c>
       <c r="B53" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C53" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E53" t="s">
         <v>190</v>
@@ -7841,18 +7905,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>214</v>
       </c>
       <c r="B54" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C54" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E54" t="s">
         <v>190</v>
@@ -7861,18 +7925,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>214</v>
       </c>
       <c r="B55" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C55" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E55" t="s">
         <v>190</v>
@@ -7881,158 +7945,158 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>214</v>
       </c>
       <c r="B56" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C56" t="s">
+        <v>588</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s">
+        <v>542</v>
+      </c>
+      <c r="C57" t="s">
+        <v>589</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>542</v>
+      </c>
+      <c r="C58" t="s">
+        <v>590</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" t="s">
+        <v>542</v>
+      </c>
+      <c r="C59" t="s">
+        <v>591</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" t="s">
+        <v>543</v>
+      </c>
+      <c r="C60" t="s">
         <v>586</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>214</v>
-      </c>
-      <c r="B57" t="s">
-        <v>539</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D60" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" t="s">
+        <v>543</v>
+      </c>
+      <c r="C61" t="s">
+        <v>592</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E61" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" t="s">
+        <v>543</v>
+      </c>
+      <c r="C62" t="s">
+        <v>593</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" t="s">
+        <v>543</v>
+      </c>
+      <c r="C63" t="s">
         <v>587</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E57" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" t="s">
-        <v>539</v>
-      </c>
-      <c r="C58" t="s">
-        <v>588</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E58" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>214</v>
-      </c>
-      <c r="B59" t="s">
-        <v>539</v>
-      </c>
-      <c r="C59" t="s">
-        <v>589</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E59" t="s">
-        <v>190</v>
-      </c>
-      <c r="F59" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>214</v>
-      </c>
-      <c r="B60" t="s">
-        <v>540</v>
-      </c>
-      <c r="C60" t="s">
-        <v>584</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E60" t="s">
-        <v>190</v>
-      </c>
-      <c r="F60" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>214</v>
-      </c>
-      <c r="B61" t="s">
-        <v>540</v>
-      </c>
-      <c r="C61" t="s">
-        <v>590</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E61" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>214</v>
-      </c>
-      <c r="B62" t="s">
-        <v>540</v>
-      </c>
-      <c r="C62" t="s">
-        <v>591</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E62" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" t="s">
-        <v>540</v>
-      </c>
-      <c r="C63" t="s">
-        <v>585</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E63" t="s">
         <v>190</v>
@@ -8041,18 +8105,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>214</v>
       </c>
       <c r="B64" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C64" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E64" t="s">
         <v>190</v>
@@ -8061,18 +8125,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C65" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E65" t="s">
         <v>190</v>
@@ -8081,18 +8145,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>214</v>
       </c>
       <c r="B66" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C66" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E66" t="s">
         <v>190</v>
@@ -8101,18 +8165,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>214</v>
       </c>
       <c r="B67" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C67" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E67" t="s">
         <v>190</v>
@@ -8121,161 +8185,161 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>214</v>
       </c>
       <c r="B68" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C68" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E68" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F68" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>214</v>
       </c>
       <c r="B69" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C69" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E69" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F69" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C70" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E70" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F70" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>214</v>
       </c>
       <c r="B71" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C71" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E71" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F71" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C72" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E72" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F72" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C73" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E73" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F73" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C74" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E74" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F74" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>214</v>
       </c>
       <c r="B75" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C75" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E75" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F75" t="s">
         <v>198</v>
@@ -8283,80 +8347,80 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
